--- a/results/I3_N5_M2_T15_C200_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.175718237289</v>
+        <v>190.1857182372891</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07400012016296387</v>
+        <v>0.09400010108947754</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.629193686678553e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.004604071012947</v>
+        <v>5.069516742254631</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.11016360191877</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.491243713793828</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37517619638956</v>
+        <v>11.88393248259574</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.04215968028262</v>
+        <v>11.55091596648892</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54.6100000000043</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>142.6290000000038</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.60299999999985</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>156.7009999999336</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>82.72299999993446</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>142.6290000000045</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7009999998356</v>
+        <v>174.6</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.629</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
